--- a/lab8analysis.xlsx
+++ b/lab8analysis.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89985ACA-BBAA-8E44-BA9E-D3CE58EAF0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B18E71E-399D-E54E-BF22-7E8FC7A271FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{64623946-9870-444F-9E1A-DFC70AB64D88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="prim1" localSheetId="0">Sheet1!$C$5:$D$25</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,12 +37,52 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{D0A49009-F8F3-EE43-BEDF-B01EFEDC76AA}" name="prim1" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/prim1.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>*10^6</t>
+  </si>
+  <si>
+    <t>Prim 1</t>
+  </si>
+  <si>
+    <t>Prim 2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,8 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -82,6 +127,1162 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Prim</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>1 performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>18.580300002213299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.105700019077602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.195199982073898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1033.0420999707701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>885.81229997544108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>838.18019998034197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77057.574499986004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83145.046299978203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78058.300599968701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1767000008548996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8656999701488504</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3285999860672701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>236.35500001546401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>214.40549999169801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>246.148699989134</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19925.0916999972</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22140.4001999871</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22203.106800043301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1960987.4409999901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1966080.2678999901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2162810.95119998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5042-3940-9FE9-5D0537201033}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1606083968"/>
+        <c:axId val="1605833360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1606083968"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Graph Size (n vertices)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1605833360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1605833360"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (log scale)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1606083968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C5E997-D9C2-BA46-BE0F-A809B025677B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="prim1" connectionId="1" xr16:uid="{3A7A8691-3EC3-EE44-9E47-B5403D1DCC3F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,20 +1582,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19423761-C76E-0043-AFAC-1C994514526C}">
-  <dimension ref="C5"/>
+  <dimension ref="B3:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C5">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1.8580300002213299E-4</v>
+      </c>
+      <c r="E5">
+        <f>D5*10^5</f>
+        <v>18.580300002213299</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1.8105700019077601E-4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E25" si="0">D6*10^5</f>
+        <v>18.105700019077602</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1.81951999820739E-4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>18.195199982073898</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>1.03304209997077E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1033.0420999707701</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>8.8581229997544107E-3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>885.81229997544108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>8.3818019998034201E-3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>838.18019998034197</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>0.77057574499986004</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>77057.574499986004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>0.83145046299978198</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>83145.046299978203</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <v>0.780583005999687</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>78058.300599968701</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.1767000008548994E-5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>7.1767000008548996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6.8656999701488503E-5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>6.8656999701488504</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7.3285999860672705E-5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>7.3285999860672701</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>2.36355000015464E-3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>236.35500001546401</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>2.1440549999169802E-3</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>214.40549999169801</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>2.46148699989134E-3</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>246.148699989134</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20">
+        <v>0.19925091699997199</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>19925.0916999972</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21">
+        <v>0.22140400199987101</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>22140.4001999871</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22">
+        <v>0.22203106800043301</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>22203.106800043301</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>5000</v>
+      </c>
+      <c r="D23">
+        <v>19.6098744099999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1960987.4409999901</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>5000</v>
+      </c>
+      <c r="D24">
+        <v>19.6608026789999</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1966080.2678999901</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>5000</v>
+      </c>
+      <c r="D25">
+        <v>21.628109511999799</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2162810.95119998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lab8analysis.xlsx
+++ b/lab8analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B18E71E-399D-E54E-BF22-7E8FC7A271FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7909332-7FB1-3E4C-85F0-1FEF2D386263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{64623946-9870-444F-9E1A-DFC70AB64D88}"/>
   </bookViews>
@@ -16,7 +16,26 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$38:$C$58</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$38:$F$58</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$38:$F$58</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$G$38:$G$58</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$38:$C$58</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$F$38:$F$58</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$G$38:$G$58</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$38:$C$58</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$F$38:$F$58</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$G$38:$G$58</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$38:$G$58</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$38:$C$58</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$38:$F$58</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$38:$G$58</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$38:$C$58</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$38:$F$58</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$38:$G$58</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$38:$C$58</definedName>
     <definedName name="prim1" localSheetId="0">Sheet1!$C$5:$D$25</definedName>
+    <definedName name="prim2" localSheetId="0">Sheet1!$T$5:$U$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +59,15 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{D0A49009-F8F3-EE43-BEDF-B01EFEDC76AA}" name="prim1" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/prim1.csv" comma="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/prim1.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{280F8C6D-3D22-DB43-A71B-684EAFCAEA95}" name="prim2" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/prim2.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -51,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>#</t>
   </si>
@@ -66,6 +93,18 @@
   </si>
   <si>
     <t>Prim 2</t>
+  </si>
+  <si>
+    <t>prim1</t>
+  </si>
+  <si>
+    <t>prim2</t>
+  </si>
+  <si>
+    <t>prim1 scaled</t>
+  </si>
+  <si>
+    <t>prim2 scaled</t>
   </si>
 </sst>
 </file>
@@ -684,7 +723,1405 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Prim</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>1 performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$5:$V$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>6.8397099948924698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0304200067330296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4053099938755604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132.78268999783901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134.14463999652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.715719998130211</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1159.9683500026001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1188.2796100053299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1072.7484600010901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.62991999786754</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.44673000249895</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6195000009465699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.171359997737397</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.987900000676699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.665169998523101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>475.249709998024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>505.85572000272799</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>515.165670003625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6721.0118499951896</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6739.4096099997105</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6673.2875100024103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-296F-894E-B4CD-A5FAE4F487F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1606083968"/>
+        <c:axId val="1605833360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1606083968"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Graph Size (n vertices)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1605833360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1605833360"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (log scale)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1606083968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Prim 1 vs Prim 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>prim 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$38:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>7.1767000008548996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8656999701488504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3285999860672701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.580300002213299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.105700019077602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.195199982073898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>236.35500001546401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>214.40549999169801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>246.148699989134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1033.0420999707701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>885.81229997544108</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>838.18019998034197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19925.0916999972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22140.4001999871</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22203.106800043301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77057.574499986004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83145.046299978203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78058.300599968701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1960987.4409999901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1966080.2678999901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2162810.95119998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C81-F945-96E3-2A6C3FD20B15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>prim 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$38:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>16.2991999786754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.4673000249895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.195000009465698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.397099948924705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.304200067330299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.053099938755601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>271.71359997737397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>269.879000006767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>266.65169998523101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1327.82689997839</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1341.4463999652</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>997.15719998130203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4752.4970999802399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5058.5572000272796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5151.6567000362502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11599.683500026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11882.7961000533</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10727.484600010901</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67210.118499951903</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67394.096099997099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66732.875100024103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C81-F945-96E3-2A6C3FD20B15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1671406320"/>
+        <c:axId val="1637756000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1671406320"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Graph</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size (number of edges)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637756000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1637756000"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Taken</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (log scale)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1671406320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1240,6 +2677,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1278,10 +3747,88 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>306552</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>662152</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95469</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9505BDCD-F047-9C46-BAAD-45E92BA93AE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>360890</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>71664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E727BAF7-CD5A-0C40-A3C1-3BDEE4569B62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="prim2" connectionId="2" xr16:uid="{F8C9E1F9-CFCB-4249-992A-A805A5EB3603}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="prim1" connectionId="1" xr16:uid="{3A7A8691-3EC3-EE44-9E47-B5403D1DCC3F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -1582,10 +4129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19423761-C76E-0043-AFAC-1C994514526C}">
-  <dimension ref="B3:V25"/>
+  <dimension ref="B3:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="50" workbookViewId="0">
+      <selection activeCell="AB64" sqref="AB64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1593,6 +4140,8 @@
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
@@ -1634,6 +4183,16 @@
         <f>D5*10^5</f>
         <v>18.580300002213299</v>
       </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <v>6.8397099948924701E-4</v>
+      </c>
+      <c r="V5">
+        <f>U5*10^4</f>
+        <v>6.8397099948924698</v>
+      </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C6">
@@ -1646,6 +4205,16 @@
         <f t="shared" ref="E6:E25" si="0">D6*10^5</f>
         <v>18.105700019077602</v>
       </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6">
+        <v>5.0304200067330298E-4</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:V25" si="1">U6*10^4</f>
+        <v>5.0304200067330296</v>
+      </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C7">
@@ -1658,6 +4227,16 @@
         <f t="shared" si="0"/>
         <v>18.195199982073898</v>
       </c>
+      <c r="T7">
+        <v>10</v>
+      </c>
+      <c r="U7">
+        <v>5.40530999387556E-4</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>5.4053099938755604</v>
+      </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C8">
@@ -1670,6 +4249,16 @@
         <f t="shared" si="0"/>
         <v>1033.0420999707701</v>
       </c>
+      <c r="T8">
+        <v>100</v>
+      </c>
+      <c r="U8">
+        <v>1.3278268999783901E-2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>132.78268999783901</v>
+      </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C9">
@@ -1682,6 +4271,16 @@
         <f t="shared" si="0"/>
         <v>885.81229997544108</v>
       </c>
+      <c r="T9">
+        <v>100</v>
+      </c>
+      <c r="U9">
+        <v>1.3414463999652E-2</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>134.14463999652</v>
+      </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C10">
@@ -1694,6 +4293,16 @@
         <f t="shared" si="0"/>
         <v>838.18019998034197</v>
       </c>
+      <c r="T10">
+        <v>100</v>
+      </c>
+      <c r="U10">
+        <v>9.9715719998130208E-3</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>99.715719998130211</v>
+      </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C11">
@@ -1706,6 +4315,16 @@
         <f t="shared" si="0"/>
         <v>77057.574499986004</v>
       </c>
+      <c r="T11">
+        <v>1000</v>
+      </c>
+      <c r="U11">
+        <v>0.11599683500026001</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>1159.9683500026001</v>
+      </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C12">
@@ -1718,6 +4337,16 @@
         <f t="shared" si="0"/>
         <v>83145.046299978203</v>
       </c>
+      <c r="T12">
+        <v>1000</v>
+      </c>
+      <c r="U12">
+        <v>0.118827961000533</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>1188.2796100053299</v>
+      </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C13">
@@ -1730,6 +4359,16 @@
         <f t="shared" si="0"/>
         <v>78058.300599968701</v>
       </c>
+      <c r="T13">
+        <v>1000</v>
+      </c>
+      <c r="U13">
+        <v>0.107274846000109</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>1072.7484600010901</v>
+      </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C14">
@@ -1742,6 +4381,16 @@
         <f t="shared" si="0"/>
         <v>7.1767000008548996</v>
       </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="U14">
+        <v>1.6299199978675401E-4</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>1.62991999786754</v>
+      </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C15">
@@ -1754,6 +4403,16 @@
         <f t="shared" si="0"/>
         <v>6.8656999701488504</v>
       </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+      <c r="U15">
+        <v>1.44673000249895E-4</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>1.44673000249895</v>
+      </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C16">
@@ -1766,8 +4425,18 @@
         <f t="shared" si="0"/>
         <v>7.3285999860672701</v>
       </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>2.6195000009465697E-4</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>2.6195000009465699</v>
+      </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>50</v>
       </c>
@@ -1778,8 +4447,18 @@
         <f t="shared" si="0"/>
         <v>236.35500001546401</v>
       </c>
+      <c r="T17">
+        <v>50</v>
+      </c>
+      <c r="U17">
+        <v>2.7171359997737398E-3</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>27.171359997737397</v>
+      </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>50</v>
       </c>
@@ -1790,8 +4469,18 @@
         <f t="shared" si="0"/>
         <v>214.40549999169801</v>
       </c>
+      <c r="T18">
+        <v>50</v>
+      </c>
+      <c r="U18">
+        <v>2.6987900000676698E-3</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>26.987900000676699</v>
+      </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>50</v>
       </c>
@@ -1802,8 +4491,18 @@
         <f t="shared" si="0"/>
         <v>246.148699989134</v>
       </c>
+      <c r="T19">
+        <v>50</v>
+      </c>
+      <c r="U19">
+        <v>2.6665169998523102E-3</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>26.665169998523101</v>
+      </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>500</v>
       </c>
@@ -1814,8 +4513,18 @@
         <f t="shared" si="0"/>
         <v>19925.0916999972</v>
       </c>
+      <c r="T20">
+        <v>500</v>
+      </c>
+      <c r="U20">
+        <v>4.75249709998024E-2</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>475.249709998024</v>
+      </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>500</v>
       </c>
@@ -1826,8 +4535,18 @@
         <f t="shared" si="0"/>
         <v>22140.4001999871</v>
       </c>
+      <c r="T21">
+        <v>500</v>
+      </c>
+      <c r="U21">
+        <v>5.0585572000272798E-2</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>505.85572000272799</v>
+      </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>500</v>
       </c>
@@ -1838,8 +4557,18 @@
         <f t="shared" si="0"/>
         <v>22203.106800043301</v>
       </c>
+      <c r="T22">
+        <v>500</v>
+      </c>
+      <c r="U22">
+        <v>5.1516567000362501E-2</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>515.165670003625</v>
+      </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>5000</v>
       </c>
@@ -1850,8 +4579,18 @@
         <f t="shared" si="0"/>
         <v>1960987.4409999901</v>
       </c>
+      <c r="T23">
+        <v>5000</v>
+      </c>
+      <c r="U23">
+        <v>0.67210118499951899</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>6721.0118499951896</v>
+      </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>5000</v>
       </c>
@@ -1862,8 +4601,18 @@
         <f t="shared" si="0"/>
         <v>1966080.2678999901</v>
       </c>
+      <c r="T24">
+        <v>5000</v>
+      </c>
+      <c r="U24">
+        <v>0.67394096099997103</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>6739.4096099997105</v>
+      </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>5000</v>
       </c>
@@ -1874,8 +4623,434 @@
         <f t="shared" si="0"/>
         <v>2162810.95119998</v>
       </c>
+      <c r="T25">
+        <v>5000</v>
+      </c>
+      <c r="U25">
+        <v>0.66732875100024103</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>6673.2875100024103</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7.1767000008548994E-5</v>
+      </c>
+      <c r="E38">
+        <v>1.6299199978675401E-4</v>
+      </c>
+      <c r="F38">
+        <f>D38*10^5</f>
+        <v>7.1767000008548996</v>
+      </c>
+      <c r="G38">
+        <f>E38*10^5</f>
+        <v>16.2991999786754</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6.8656999701488503E-5</v>
+      </c>
+      <c r="E39">
+        <v>1.44673000249895E-4</v>
+      </c>
+      <c r="F39">
+        <f>D39*10^5</f>
+        <v>6.8656999701488504</v>
+      </c>
+      <c r="G39">
+        <f>E39*10^5</f>
+        <v>14.4673000249895</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7.3285999860672705E-5</v>
+      </c>
+      <c r="E40">
+        <v>2.6195000009465697E-4</v>
+      </c>
+      <c r="F40">
+        <f>D40*10^5</f>
+        <v>7.3285999860672701</v>
+      </c>
+      <c r="G40">
+        <f>E40*10^5</f>
+        <v>26.195000009465698</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>1.8580300002213299E-4</v>
+      </c>
+      <c r="E41">
+        <v>6.8397099948924701E-4</v>
+      </c>
+      <c r="F41">
+        <f>D41*10^5</f>
+        <v>18.580300002213299</v>
+      </c>
+      <c r="G41">
+        <f>E41*10^5</f>
+        <v>68.397099948924705</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>1.8105700019077601E-4</v>
+      </c>
+      <c r="E42">
+        <v>5.0304200067330298E-4</v>
+      </c>
+      <c r="F42">
+        <f>D42*10^5</f>
+        <v>18.105700019077602</v>
+      </c>
+      <c r="G42">
+        <f>E42*10^5</f>
+        <v>50.304200067330299</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>1.81951999820739E-4</v>
+      </c>
+      <c r="E43">
+        <v>5.40530999387556E-4</v>
+      </c>
+      <c r="F43">
+        <f>D43*10^5</f>
+        <v>18.195199982073898</v>
+      </c>
+      <c r="G43">
+        <f>E43*10^5</f>
+        <v>54.053099938755601</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>2.36355000015464E-3</v>
+      </c>
+      <c r="E44">
+        <v>2.7171359997737398E-3</v>
+      </c>
+      <c r="F44">
+        <f>D44*10^5</f>
+        <v>236.35500001546401</v>
+      </c>
+      <c r="G44">
+        <f>E44*10^5</f>
+        <v>271.71359997737397</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>2.1440549999169802E-3</v>
+      </c>
+      <c r="E45">
+        <v>2.6987900000676698E-3</v>
+      </c>
+      <c r="F45">
+        <f>D45*10^5</f>
+        <v>214.40549999169801</v>
+      </c>
+      <c r="G45">
+        <f>E45*10^5</f>
+        <v>269.879000006767</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>2.46148699989134E-3</v>
+      </c>
+      <c r="E46">
+        <v>2.6665169998523102E-3</v>
+      </c>
+      <c r="F46">
+        <f>D46*10^5</f>
+        <v>246.148699989134</v>
+      </c>
+      <c r="G46">
+        <f>E46*10^5</f>
+        <v>266.65169998523101</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>1.03304209997077E-2</v>
+      </c>
+      <c r="E47">
+        <v>1.3278268999783901E-2</v>
+      </c>
+      <c r="F47">
+        <f>D47*10^5</f>
+        <v>1033.0420999707701</v>
+      </c>
+      <c r="G47">
+        <f>E47*10^5</f>
+        <v>1327.82689997839</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <v>8.8581229997544107E-3</v>
+      </c>
+      <c r="E48">
+        <v>1.3414463999652E-2</v>
+      </c>
+      <c r="F48">
+        <f>D48*10^5</f>
+        <v>885.81229997544108</v>
+      </c>
+      <c r="G48">
+        <f>E48*10^5</f>
+        <v>1341.4463999652</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>8.3818019998034201E-3</v>
+      </c>
+      <c r="E49">
+        <v>9.9715719998130208E-3</v>
+      </c>
+      <c r="F49">
+        <f>D49*10^5</f>
+        <v>838.18019998034197</v>
+      </c>
+      <c r="G49">
+        <f>E49*10^5</f>
+        <v>997.15719998130203</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>500</v>
+      </c>
+      <c r="D50">
+        <v>0.19925091699997199</v>
+      </c>
+      <c r="E50">
+        <v>4.75249709998024E-2</v>
+      </c>
+      <c r="F50">
+        <f>D50*10^5</f>
+        <v>19925.0916999972</v>
+      </c>
+      <c r="G50">
+        <f>E50*10^5</f>
+        <v>4752.4970999802399</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>500</v>
+      </c>
+      <c r="D51">
+        <v>0.22140400199987101</v>
+      </c>
+      <c r="E51">
+        <v>5.0585572000272798E-2</v>
+      </c>
+      <c r="F51">
+        <f>D51*10^5</f>
+        <v>22140.4001999871</v>
+      </c>
+      <c r="G51">
+        <f>E51*10^5</f>
+        <v>5058.5572000272796</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>500</v>
+      </c>
+      <c r="D52">
+        <v>0.22203106800043301</v>
+      </c>
+      <c r="E52">
+        <v>5.1516567000362501E-2</v>
+      </c>
+      <c r="F52">
+        <f>D52*10^5</f>
+        <v>22203.106800043301</v>
+      </c>
+      <c r="G52">
+        <f>E52*10^5</f>
+        <v>5151.6567000362502</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>1000</v>
+      </c>
+      <c r="D53">
+        <v>0.77057574499986004</v>
+      </c>
+      <c r="E53">
+        <v>0.11599683500026001</v>
+      </c>
+      <c r="F53">
+        <f>D53*10^5</f>
+        <v>77057.574499986004</v>
+      </c>
+      <c r="G53">
+        <f>E53*10^5</f>
+        <v>11599.683500026</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>1000</v>
+      </c>
+      <c r="D54">
+        <v>0.83145046299978198</v>
+      </c>
+      <c r="E54">
+        <v>0.118827961000533</v>
+      </c>
+      <c r="F54">
+        <f>D54*10^5</f>
+        <v>83145.046299978203</v>
+      </c>
+      <c r="G54">
+        <f>E54*10^5</f>
+        <v>11882.7961000533</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>1000</v>
+      </c>
+      <c r="D55">
+        <v>0.780583005999687</v>
+      </c>
+      <c r="E55">
+        <v>0.107274846000109</v>
+      </c>
+      <c r="F55">
+        <f>D55*10^5</f>
+        <v>78058.300599968701</v>
+      </c>
+      <c r="G55">
+        <f>E55*10^5</f>
+        <v>10727.484600010901</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>5000</v>
+      </c>
+      <c r="D56">
+        <v>19.6098744099999</v>
+      </c>
+      <c r="E56">
+        <v>0.67210118499951899</v>
+      </c>
+      <c r="F56">
+        <f>D56*10^5</f>
+        <v>1960987.4409999901</v>
+      </c>
+      <c r="G56">
+        <f>E56*10^5</f>
+        <v>67210.118499951903</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>5000</v>
+      </c>
+      <c r="D57">
+        <v>19.6608026789999</v>
+      </c>
+      <c r="E57">
+        <v>0.67394096099997103</v>
+      </c>
+      <c r="F57">
+        <f>D57*10^5</f>
+        <v>1966080.2678999901</v>
+      </c>
+      <c r="G57">
+        <f>E57*10^5</f>
+        <v>67394.096099997099</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>5000</v>
+      </c>
+      <c r="D58">
+        <v>21.628109511999799</v>
+      </c>
+      <c r="E58">
+        <v>0.66732875100024103</v>
+      </c>
+      <c r="F58">
+        <f>D58*10^5</f>
+        <v>2162810.95119998</v>
+      </c>
+      <c r="G58">
+        <f>E58*10^5</f>
+        <v>66732.875100024103</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C38:G58">
+    <sortCondition ref="C38:C58"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/lab8analysis.xlsx
+++ b/lab8analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7909332-7FB1-3E4C-85F0-1FEF2D386263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4106E1F9-ED28-5D4E-BF47-78D9798A17E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{64623946-9870-444F-9E1A-DFC70AB64D88}"/>
   </bookViews>
@@ -16,24 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$38:$C$58</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$38:$F$58</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$38:$F$58</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$G$38:$G$58</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$38:$C$58</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$F$38:$F$58</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$G$38:$G$58</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$38:$C$58</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$F$38:$F$58</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$G$38:$G$58</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$38:$G$58</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$38:$C$58</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$38:$F$58</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$38:$G$58</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$38:$C$58</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$38:$F$58</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$38:$G$58</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$38:$C$58</definedName>
     <definedName name="prim1" localSheetId="0">Sheet1!$C$5:$D$25</definedName>
     <definedName name="prim2" localSheetId="0">Sheet1!$T$5:$U$25</definedName>
   </definedNames>
@@ -67,7 +49,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{280F8C6D-3D22-DB43-A71B-684EAFCAEA95}" name="prim2" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/prim2.csv" comma="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/prim2.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -4659,11 +4641,11 @@
         <v>1.6299199978675401E-4</v>
       </c>
       <c r="F38">
-        <f>D38*10^5</f>
+        <f t="shared" ref="F38:F58" si="2">D38*10^5</f>
         <v>7.1767000008548996</v>
       </c>
       <c r="G38">
-        <f>E38*10^5</f>
+        <f t="shared" ref="G38:G58" si="3">E38*10^5</f>
         <v>16.2991999786754</v>
       </c>
     </row>
@@ -4678,11 +4660,11 @@
         <v>1.44673000249895E-4</v>
       </c>
       <c r="F39">
-        <f>D39*10^5</f>
+        <f t="shared" si="2"/>
         <v>6.8656999701488504</v>
       </c>
       <c r="G39">
-        <f>E39*10^5</f>
+        <f t="shared" si="3"/>
         <v>14.4673000249895</v>
       </c>
     </row>
@@ -4697,11 +4679,11 @@
         <v>2.6195000009465697E-4</v>
       </c>
       <c r="F40">
-        <f>D40*10^5</f>
+        <f t="shared" si="2"/>
         <v>7.3285999860672701</v>
       </c>
       <c r="G40">
-        <f>E40*10^5</f>
+        <f t="shared" si="3"/>
         <v>26.195000009465698</v>
       </c>
     </row>
@@ -4716,11 +4698,11 @@
         <v>6.8397099948924701E-4</v>
       </c>
       <c r="F41">
-        <f>D41*10^5</f>
+        <f t="shared" si="2"/>
         <v>18.580300002213299</v>
       </c>
       <c r="G41">
-        <f>E41*10^5</f>
+        <f t="shared" si="3"/>
         <v>68.397099948924705</v>
       </c>
     </row>
@@ -4735,11 +4717,11 @@
         <v>5.0304200067330298E-4</v>
       </c>
       <c r="F42">
-        <f>D42*10^5</f>
+        <f t="shared" si="2"/>
         <v>18.105700019077602</v>
       </c>
       <c r="G42">
-        <f>E42*10^5</f>
+        <f t="shared" si="3"/>
         <v>50.304200067330299</v>
       </c>
     </row>
@@ -4754,11 +4736,11 @@
         <v>5.40530999387556E-4</v>
       </c>
       <c r="F43">
-        <f>D43*10^5</f>
+        <f t="shared" si="2"/>
         <v>18.195199982073898</v>
       </c>
       <c r="G43">
-        <f>E43*10^5</f>
+        <f t="shared" si="3"/>
         <v>54.053099938755601</v>
       </c>
     </row>
@@ -4773,11 +4755,11 @@
         <v>2.7171359997737398E-3</v>
       </c>
       <c r="F44">
-        <f>D44*10^5</f>
+        <f t="shared" si="2"/>
         <v>236.35500001546401</v>
       </c>
       <c r="G44">
-        <f>E44*10^5</f>
+        <f t="shared" si="3"/>
         <v>271.71359997737397</v>
       </c>
     </row>
@@ -4792,11 +4774,11 @@
         <v>2.6987900000676698E-3</v>
       </c>
       <c r="F45">
-        <f>D45*10^5</f>
+        <f t="shared" si="2"/>
         <v>214.40549999169801</v>
       </c>
       <c r="G45">
-        <f>E45*10^5</f>
+        <f t="shared" si="3"/>
         <v>269.879000006767</v>
       </c>
     </row>
@@ -4811,11 +4793,11 @@
         <v>2.6665169998523102E-3</v>
       </c>
       <c r="F46">
-        <f>D46*10^5</f>
+        <f t="shared" si="2"/>
         <v>246.148699989134</v>
       </c>
       <c r="G46">
-        <f>E46*10^5</f>
+        <f t="shared" si="3"/>
         <v>266.65169998523101</v>
       </c>
     </row>
@@ -4830,11 +4812,11 @@
         <v>1.3278268999783901E-2</v>
       </c>
       <c r="F47">
-        <f>D47*10^5</f>
+        <f t="shared" si="2"/>
         <v>1033.0420999707701</v>
       </c>
       <c r="G47">
-        <f>E47*10^5</f>
+        <f t="shared" si="3"/>
         <v>1327.82689997839</v>
       </c>
     </row>
@@ -4849,11 +4831,11 @@
         <v>1.3414463999652E-2</v>
       </c>
       <c r="F48">
-        <f>D48*10^5</f>
+        <f t="shared" si="2"/>
         <v>885.81229997544108</v>
       </c>
       <c r="G48">
-        <f>E48*10^5</f>
+        <f t="shared" si="3"/>
         <v>1341.4463999652</v>
       </c>
     </row>
@@ -4868,11 +4850,11 @@
         <v>9.9715719998130208E-3</v>
       </c>
       <c r="F49">
-        <f>D49*10^5</f>
+        <f t="shared" si="2"/>
         <v>838.18019998034197</v>
       </c>
       <c r="G49">
-        <f>E49*10^5</f>
+        <f t="shared" si="3"/>
         <v>997.15719998130203</v>
       </c>
     </row>
@@ -4887,11 +4869,11 @@
         <v>4.75249709998024E-2</v>
       </c>
       <c r="F50">
-        <f>D50*10^5</f>
+        <f t="shared" si="2"/>
         <v>19925.0916999972</v>
       </c>
       <c r="G50">
-        <f>E50*10^5</f>
+        <f t="shared" si="3"/>
         <v>4752.4970999802399</v>
       </c>
     </row>
@@ -4906,11 +4888,11 @@
         <v>5.0585572000272798E-2</v>
       </c>
       <c r="F51">
-        <f>D51*10^5</f>
+        <f t="shared" si="2"/>
         <v>22140.4001999871</v>
       </c>
       <c r="G51">
-        <f>E51*10^5</f>
+        <f t="shared" si="3"/>
         <v>5058.5572000272796</v>
       </c>
     </row>
@@ -4925,11 +4907,11 @@
         <v>5.1516567000362501E-2</v>
       </c>
       <c r="F52">
-        <f>D52*10^5</f>
+        <f t="shared" si="2"/>
         <v>22203.106800043301</v>
       </c>
       <c r="G52">
-        <f>E52*10^5</f>
+        <f t="shared" si="3"/>
         <v>5151.6567000362502</v>
       </c>
     </row>
@@ -4944,11 +4926,11 @@
         <v>0.11599683500026001</v>
       </c>
       <c r="F53">
-        <f>D53*10^5</f>
+        <f t="shared" si="2"/>
         <v>77057.574499986004</v>
       </c>
       <c r="G53">
-        <f>E53*10^5</f>
+        <f t="shared" si="3"/>
         <v>11599.683500026</v>
       </c>
     </row>
@@ -4963,11 +4945,11 @@
         <v>0.118827961000533</v>
       </c>
       <c r="F54">
-        <f>D54*10^5</f>
+        <f t="shared" si="2"/>
         <v>83145.046299978203</v>
       </c>
       <c r="G54">
-        <f>E54*10^5</f>
+        <f t="shared" si="3"/>
         <v>11882.7961000533</v>
       </c>
     </row>
@@ -4982,11 +4964,11 @@
         <v>0.107274846000109</v>
       </c>
       <c r="F55">
-        <f>D55*10^5</f>
+        <f t="shared" si="2"/>
         <v>78058.300599968701</v>
       </c>
       <c r="G55">
-        <f>E55*10^5</f>
+        <f t="shared" si="3"/>
         <v>10727.484600010901</v>
       </c>
     </row>
@@ -5001,11 +4983,11 @@
         <v>0.67210118499951899</v>
       </c>
       <c r="F56">
-        <f>D56*10^5</f>
+        <f t="shared" si="2"/>
         <v>1960987.4409999901</v>
       </c>
       <c r="G56">
-        <f>E56*10^5</f>
+        <f t="shared" si="3"/>
         <v>67210.118499951903</v>
       </c>
     </row>
@@ -5020,11 +5002,11 @@
         <v>0.67394096099997103</v>
       </c>
       <c r="F57">
-        <f>D57*10^5</f>
+        <f t="shared" si="2"/>
         <v>1966080.2678999901</v>
       </c>
       <c r="G57">
-        <f>E57*10^5</f>
+        <f t="shared" si="3"/>
         <v>67394.096099997099</v>
       </c>
     </row>
@@ -5039,11 +5021,11 @@
         <v>0.66732875100024103</v>
       </c>
       <c r="F58">
-        <f>D58*10^5</f>
+        <f t="shared" si="2"/>
         <v>2162810.95119998</v>
       </c>
       <c r="G58">
-        <f>E58*10^5</f>
+        <f t="shared" si="3"/>
         <v>66732.875100024103</v>
       </c>
     </row>
